--- a/cn.xlsx
+++ b/cn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PHP\quanlycuahang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49232328-69FE-4E41-808B-FCD107EF3484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650CE2F1-F413-42F4-BF01-474EF0B4CDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23040" yWindow="3000" windowWidth="18000" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,7 +183,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -608,7 +614,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
@@ -616,51 +622,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cn.xlsx
+++ b/cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PHP\quanlycuahang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650CE2F1-F413-42F4-BF01-474EF0B4CDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25320D1-224B-4B3F-99E0-34332B04AEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23040" yWindow="3000" windowWidth="18000" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
@@ -622,12 +622,15 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cn.xlsx
+++ b/cn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PHP\quanlycuahang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25320D1-224B-4B3F-99E0-34332B04AEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A174A12-E595-4559-804A-820B3C0B8EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="3000" windowWidth="18000" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>sản phẩm</t>
   </si>
@@ -133,6 +133,33 @@
   </si>
   <si>
     <t>huỷ linh kiện(Không cộng)</t>
+  </si>
+  <si>
+    <t>Xử lý ảnh</t>
+  </si>
+  <si>
+    <t>Giảm chất lượng</t>
+  </si>
+  <si>
+    <t>lưu file</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Cho phép tải mẫu insert</t>
+  </si>
+  <si>
+    <t>Kho</t>
+  </si>
+  <si>
+    <t>Cập nhật nhanh số lượng</t>
+  </si>
+  <si>
+    <t>Gợi ý hàng sửa tiếp theo theo thứ tự</t>
+  </si>
+  <si>
+    <t>dđã xoá bao nhiêu sản phẩm trong tháng</t>
   </si>
 </sst>
 </file>
@@ -464,22 +491,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,12 +527,21 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
@@ -515,12 +553,21 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
@@ -532,12 +579,16 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
@@ -547,11 +598,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
@@ -561,7 +612,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -569,11 +621,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
@@ -583,53 +635,59 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
   </sheetData>

--- a/cn.xlsx
+++ b/cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PHP\quanlycuahang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A174A12-E595-4559-804A-820B3C0B8EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DDBC97-8380-4F11-97E2-01F6EB1C6C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>sản phẩm</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>dđã xoá bao nhiêu sản phẩm trong tháng</t>
+  </si>
+  <si>
+    <t>hoàn lại sản phẩm đã bán</t>
+  </si>
+  <si>
+    <t>hoàn lại linh kiện đã bán</t>
   </si>
 </sst>
 </file>
@@ -494,13 +500,13 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" customWidth="1"/>
     <col min="3" max="3" width="30.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
@@ -688,7 +694,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cn.xlsx
+++ b/cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\PHP\quanlycuahang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DDBC97-8380-4F11-97E2-01F6EB1C6C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004AF98A-264E-41F2-B255-F970F65819BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>sản phẩm</t>
   </si>
@@ -162,10 +162,16 @@
     <t>dđã xoá bao nhiêu sản phẩm trong tháng</t>
   </si>
   <si>
-    <t>hoàn lại sản phẩm đã bán</t>
-  </si>
-  <si>
-    <t>hoàn lại linh kiện đã bán</t>
+    <t>Đã bán</t>
+  </si>
+  <si>
+    <t>Xem thông tin</t>
+  </si>
+  <si>
+    <t>Sửa thông tin</t>
+  </si>
+  <si>
+    <t>Hoàn lại</t>
   </si>
 </sst>
 </file>
@@ -497,24 +503,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.59765625" customWidth="1"/>
-    <col min="3" max="3" width="30.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,162 +529,178 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -685,7 +708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -693,13 +716,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
